--- a/Multi-taxa_data/PLITs/extraction/PLIT_YO.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_YO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A52943-D758-4A96-81E0-B780DAE8206E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE53CFE-C69D-49AA-A866-B5C857F88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5698,7 +5698,7 @@
         <v>8</v>
       </c>
       <c r="C134" s="12">
-        <f t="shared" ref="C134:C197" si="2">A135-A134</f>
+        <f t="shared" ref="C134:C196" si="2">A135-A134</f>
         <v>7</v>
       </c>
       <c r="D134" s="7" t="s">
@@ -11478,10 +11478,10 @@
   <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E111" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E123" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5:C128"/>
+      <selection pane="bottomRight" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13368,7 +13368,7 @@
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D99" s="7" t="s">
         <v>24</v>
@@ -13379,14 +13379,14 @@
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
-        <v>2429</v>
+        <v>2419</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
-        <v>-4</v>
+        <v>6</v>
       </c>
       <c r="D100" s="7" t="s">
         <v>30</v>
@@ -14633,7 +14633,7 @@
   <dimension ref="A1:U278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A278" sqref="A278"/>
@@ -14654,7 +14654,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -14672,7 +14672,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
@@ -14690,7 +14690,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -14709,7 +14709,7 @@
       <c r="L3" s="4"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -14754,7 +14754,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>42</v>
       </c>
@@ -14784,7 +14784,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>47</v>
       </c>
@@ -14811,7 +14811,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>52</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>57</v>
       </c>
@@ -14869,7 +14869,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>79</v>
       </c>
@@ -14900,7 +14900,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>87</v>
       </c>
@@ -14927,7 +14927,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>90</v>
       </c>
@@ -14954,7 +14954,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>95</v>
       </c>
@@ -14981,7 +14981,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>103</v>
       </c>
@@ -15008,7 +15008,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>115</v>
       </c>
@@ -15035,7 +15035,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>121</v>
       </c>
@@ -15062,7 +15062,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>126</v>
       </c>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="L16" s="28"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>136</v>
       </c>
@@ -15110,7 +15110,7 @@
       </c>
       <c r="L17" s="28"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>145</v>
       </c>
@@ -15135,7 +15135,7 @@
       </c>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>159</v>
       </c>
@@ -15160,7 +15160,7 @@
       </c>
       <c r="L19" s="28"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>166</v>
       </c>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="L20" s="28"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>171</v>
       </c>
@@ -15208,7 +15208,7 @@
       </c>
       <c r="L21" s="28"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>178</v>
       </c>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="L22" s="28"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>181</v>
       </c>
@@ -15256,7 +15256,7 @@
       </c>
       <c r="L23" s="28"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>184</v>
       </c>
@@ -15281,7 +15281,7 @@
       </c>
       <c r="L24" s="28"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>186</v>
       </c>
@@ -15306,7 +15306,7 @@
       </c>
       <c r="L25" s="28"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>224</v>
       </c>
@@ -15331,7 +15331,7 @@
       </c>
       <c r="L26" s="28"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>230</v>
       </c>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="L27" s="28"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>243</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>255</v>
       </c>
@@ -15408,7 +15408,7 @@
       </c>
       <c r="L29" s="28"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>265</v>
       </c>
@@ -15433,7 +15433,7 @@
       </c>
       <c r="L30" s="28"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>276</v>
       </c>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="L31" s="28"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>282</v>
       </c>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="L32" s="28"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>285</v>
       </c>
@@ -15508,7 +15508,7 @@
       </c>
       <c r="L33" s="28"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>287</v>
       </c>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="L34" s="28"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>290</v>
       </c>
@@ -15558,7 +15558,7 @@
       </c>
       <c r="L35" s="28"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>295</v>
       </c>
@@ -15583,7 +15583,7 @@
       </c>
       <c r="L36" s="28"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>308</v>
       </c>
@@ -15608,7 +15608,7 @@
       </c>
       <c r="L37" s="28"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>310</v>
       </c>
@@ -15633,7 +15633,7 @@
       </c>
       <c r="L38" s="28"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>325</v>
       </c>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="L39" s="28"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>341</v>
       </c>
@@ -15683,7 +15683,7 @@
       </c>
       <c r="L40" s="28"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>367</v>
       </c>
@@ -15708,7 +15708,7 @@
       </c>
       <c r="L41" s="28"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>384</v>
       </c>
@@ -15733,7 +15733,7 @@
       </c>
       <c r="L42" s="28"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>388</v>
       </c>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="L43" s="28"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>399</v>
       </c>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="L44" s="28"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>401</v>
       </c>
@@ -15808,7 +15808,7 @@
       </c>
       <c r="L45" s="28"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>403</v>
       </c>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="L46" s="28"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>405</v>
       </c>
@@ -15858,7 +15858,7 @@
       </c>
       <c r="L47" s="28"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>406</v>
       </c>
@@ -15883,7 +15883,7 @@
       </c>
       <c r="L48" s="28"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>418</v>
       </c>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="L49" s="28"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <v>469</v>
       </c>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="L50" s="28"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>472</v>
       </c>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="L51" s="28"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>476</v>
       </c>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="L52" s="28"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>479</v>
       </c>
@@ -16008,7 +16008,7 @@
       </c>
       <c r="L53" s="28"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>482</v>
       </c>
@@ -16033,7 +16033,7 @@
       </c>
       <c r="L54" s="28"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>488</v>
       </c>
@@ -16058,7 +16058,7 @@
       </c>
       <c r="L55" s="28"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>494</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="L56" s="28"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>498</v>
       </c>
@@ -16108,7 +16108,7 @@
       </c>
       <c r="L57" s="28"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>518</v>
       </c>
@@ -16133,7 +16133,7 @@
       </c>
       <c r="L58" s="28"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>530</v>
       </c>
@@ -16158,7 +16158,7 @@
       </c>
       <c r="L59" s="28"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>547</v>
       </c>
@@ -16185,7 +16185,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>555</v>
       </c>
@@ -16210,7 +16210,7 @@
       </c>
       <c r="L61" s="28"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>569</v>
       </c>
@@ -16231,7 +16231,7 @@
       <c r="K62" s="28"/>
       <c r="L62" s="28"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <v>575</v>
       </c>
@@ -16256,7 +16256,7 @@
       </c>
       <c r="L63" s="28"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="26">
         <v>583</v>
       </c>
@@ -16281,7 +16281,7 @@
       </c>
       <c r="L64" s="28"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>594</v>
       </c>
@@ -16306,7 +16306,7 @@
       </c>
       <c r="L65" s="31"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>598</v>
       </c>
@@ -16331,7 +16331,7 @@
       </c>
       <c r="L66" s="28"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="26">
         <v>605</v>
       </c>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="L67" s="28"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="26">
         <v>622</v>
       </c>
@@ -16383,7 +16383,7 @@
       </c>
       <c r="L68" s="28"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="26">
         <v>648</v>
       </c>
@@ -16408,7 +16408,7 @@
       </c>
       <c r="L69" s="28"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="26">
         <v>652</v>
       </c>
@@ -16433,7 +16433,7 @@
       </c>
       <c r="L70" s="28"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="26">
         <v>668</v>
       </c>
@@ -16458,7 +16458,7 @@
       </c>
       <c r="L71" s="28"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="26">
         <v>672</v>
       </c>
@@ -16483,7 +16483,7 @@
       </c>
       <c r="L72" s="28"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="26">
         <v>676</v>
       </c>
@@ -16508,7 +16508,7 @@
       </c>
       <c r="L73" s="28"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="26">
         <v>683</v>
       </c>
@@ -16533,7 +16533,7 @@
       </c>
       <c r="L74" s="28"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>712</v>
       </c>
@@ -16558,7 +16558,7 @@
       </c>
       <c r="L75" s="28"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="26">
         <v>718</v>
       </c>
@@ -16583,7 +16583,7 @@
       </c>
       <c r="L76" s="28"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="26">
         <v>726</v>
       </c>
@@ -16608,7 +16608,7 @@
       </c>
       <c r="L77" s="28"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>738</v>
       </c>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="L78" s="28"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="26">
         <v>743</v>
       </c>
@@ -16658,7 +16658,7 @@
       </c>
       <c r="L79" s="28"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="26">
         <v>757</v>
       </c>
@@ -16683,7 +16683,7 @@
       </c>
       <c r="L80" s="28"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="26">
         <v>765</v>
       </c>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="L81" s="28"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="26">
         <v>773</v>
       </c>
@@ -16733,7 +16733,7 @@
       </c>
       <c r="L82" s="28"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="26">
         <v>777</v>
       </c>
@@ -16758,7 +16758,7 @@
       </c>
       <c r="L83" s="28"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="26">
         <v>779</v>
       </c>
@@ -16785,7 +16785,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="26">
         <v>811</v>
       </c>
@@ -16808,7 +16808,7 @@
       </c>
       <c r="L85" s="28"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>814</v>
       </c>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="L86" s="28"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="26">
         <v>818</v>
       </c>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="L87" s="28"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>846</v>
       </c>
@@ -16883,7 +16883,7 @@
       </c>
       <c r="L88" s="28"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>849</v>
       </c>
@@ -16908,7 +16908,7 @@
       </c>
       <c r="L89" s="28"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>853</v>
       </c>
@@ -16933,7 +16933,7 @@
       </c>
       <c r="L90" s="28"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>854</v>
       </c>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="L91" s="28"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>857</v>
       </c>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="L92" s="28"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>881</v>
       </c>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="L93" s="28"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>890</v>
       </c>
@@ -17031,7 +17031,7 @@
       </c>
       <c r="L94" s="28"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>894</v>
       </c>
@@ -17056,7 +17056,7 @@
       </c>
       <c r="L95" s="28"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>900</v>
       </c>
@@ -17081,7 +17081,7 @@
       </c>
       <c r="L96" s="28"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>905</v>
       </c>
@@ -17108,7 +17108,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>927</v>
       </c>
@@ -17133,7 +17133,7 @@
       </c>
       <c r="L98" s="28"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>930</v>
       </c>
@@ -17158,7 +17158,7 @@
       </c>
       <c r="L99" s="28"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="26">
         <v>935</v>
       </c>
@@ -17183,7 +17183,7 @@
       </c>
       <c r="L100" s="28"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="26">
         <v>938</v>
       </c>
@@ -17208,7 +17208,7 @@
       </c>
       <c r="L101" s="28"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="26">
         <v>941</v>
       </c>
@@ -17233,7 +17233,7 @@
       </c>
       <c r="L102" s="28"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="26">
         <v>946</v>
       </c>
@@ -17258,7 +17258,7 @@
       </c>
       <c r="L103" s="28"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="26">
         <v>955</v>
       </c>
@@ -17283,7 +17283,7 @@
       </c>
       <c r="L104" s="28"/>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="26">
         <v>958</v>
       </c>
@@ -17308,7 +17308,7 @@
       </c>
       <c r="L105" s="28"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="26">
         <v>975</v>
       </c>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="L106" s="28"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="26">
         <v>978</v>
       </c>
@@ -17358,7 +17358,7 @@
       </c>
       <c r="L107" s="28"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="26">
         <v>984</v>
       </c>
@@ -17385,7 +17385,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="26">
         <v>1001</v>
       </c>
@@ -17410,7 +17410,7 @@
       </c>
       <c r="L109" s="28"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="26">
         <v>1006</v>
       </c>
@@ -17435,7 +17435,7 @@
       </c>
       <c r="L110" s="28"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="26">
         <v>1010</v>
       </c>
@@ -17460,7 +17460,7 @@
       </c>
       <c r="L111" s="28"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="26">
         <v>1012</v>
       </c>
@@ -17485,7 +17485,7 @@
       </c>
       <c r="L112" s="28"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="26">
         <v>1036</v>
       </c>
@@ -17510,7 +17510,7 @@
       </c>
       <c r="L113" s="28"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>1042</v>
       </c>
@@ -17535,7 +17535,7 @@
       </c>
       <c r="L114" s="28"/>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="26">
         <v>1051</v>
       </c>
@@ -17560,7 +17560,7 @@
       </c>
       <c r="L115" s="28"/>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="26">
         <v>1059</v>
       </c>
@@ -17585,7 +17585,7 @@
       </c>
       <c r="L116" s="28"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="26">
         <v>1076</v>
       </c>
@@ -17610,7 +17610,7 @@
       </c>
       <c r="L117" s="28"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="26">
         <v>1080</v>
       </c>
@@ -17635,7 +17635,7 @@
       </c>
       <c r="L118" s="28"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="26">
         <v>1099</v>
       </c>
@@ -17660,7 +17660,7 @@
       </c>
       <c r="L119" s="28"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="26">
         <v>1121</v>
       </c>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="L120" s="28"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="26">
         <v>1123</v>
       </c>
@@ -17710,7 +17710,7 @@
       </c>
       <c r="L121" s="28"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="26">
         <v>1126</v>
       </c>
@@ -17735,7 +17735,7 @@
       </c>
       <c r="L122" s="28"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="26">
         <v>1145</v>
       </c>
@@ -17760,7 +17760,7 @@
       </c>
       <c r="L123" s="28"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="26">
         <v>1152</v>
       </c>
@@ -17787,7 +17787,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="26">
         <v>1155</v>
       </c>
@@ -17812,7 +17812,7 @@
       </c>
       <c r="L125" s="28"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="26">
         <v>1161</v>
       </c>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="L126" s="28"/>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="26">
         <v>1164</v>
       </c>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="L127" s="28"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="26">
         <v>1169</v>
       </c>
@@ -17885,7 +17885,7 @@
       </c>
       <c r="L128" s="28"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="26">
         <v>1178</v>
       </c>
@@ -17910,7 +17910,7 @@
       </c>
       <c r="L129" s="28"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="26">
         <v>1182</v>
       </c>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="L130" s="28"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="26">
         <v>1185</v>
       </c>
@@ -17958,7 +17958,7 @@
       </c>
       <c r="L131" s="28"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="26">
         <v>1190</v>
       </c>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="L132" s="28"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="26">
         <v>1214</v>
       </c>
@@ -18008,7 +18008,7 @@
       </c>
       <c r="L133" s="28"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="26">
         <v>1218</v>
       </c>
@@ -18033,7 +18033,7 @@
       </c>
       <c r="L134" s="28"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>1226</v>
       </c>
@@ -18058,7 +18058,7 @@
       </c>
       <c r="L135" s="28"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>1237</v>
       </c>
@@ -18083,7 +18083,7 @@
       </c>
       <c r="L136" s="28"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>1245</v>
       </c>
@@ -18108,7 +18108,7 @@
       </c>
       <c r="L137" s="28"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>1257</v>
       </c>
@@ -18133,7 +18133,7 @@
       </c>
       <c r="L138" s="28"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>1262</v>
       </c>
@@ -18158,7 +18158,7 @@
       </c>
       <c r="L139" s="28"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>1265</v>
       </c>
@@ -18183,7 +18183,7 @@
       </c>
       <c r="L140" s="28"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>1271</v>
       </c>
@@ -18206,7 +18206,7 @@
       </c>
       <c r="L141" s="28"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>1276</v>
       </c>
@@ -18231,7 +18231,7 @@
       </c>
       <c r="L142" s="28"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>1278</v>
       </c>
@@ -18256,7 +18256,7 @@
       </c>
       <c r="L143" s="28"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="26">
         <v>1296</v>
       </c>
@@ -18281,7 +18281,7 @@
       </c>
       <c r="L144" s="28"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="26">
         <v>1300</v>
       </c>
@@ -18306,7 +18306,7 @@
       </c>
       <c r="L145" s="28"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="26">
         <v>1304</v>
       </c>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="L146" s="28"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="26">
         <v>1332</v>
       </c>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="L147" s="28"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="26">
         <v>1334</v>
       </c>
@@ -18381,7 +18381,7 @@
       </c>
       <c r="L148" s="28"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="26">
         <v>1338</v>
       </c>
@@ -18406,7 +18406,7 @@
       </c>
       <c r="L149" s="36"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="26">
         <v>1343</v>
       </c>
@@ -18431,7 +18431,7 @@
       </c>
       <c r="L150" s="28"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="26">
         <v>1359</v>
       </c>
@@ -18456,7 +18456,7 @@
       </c>
       <c r="L151" s="28"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="26">
         <v>1376</v>
       </c>
@@ -18481,7 +18481,7 @@
       </c>
       <c r="L152" s="28"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="26">
         <v>1377</v>
       </c>
@@ -18506,7 +18506,7 @@
       </c>
       <c r="L153" s="28"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="26">
         <v>1392</v>
       </c>
@@ -18531,7 +18531,7 @@
       </c>
       <c r="L154" s="28"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="26">
         <v>1396</v>
       </c>
@@ -18556,7 +18556,7 @@
       </c>
       <c r="L155" s="28"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="26">
         <v>1400</v>
       </c>
@@ -18579,7 +18579,7 @@
       </c>
       <c r="L156" s="28"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="26">
         <v>1405</v>
       </c>
@@ -18604,7 +18604,7 @@
       </c>
       <c r="L157" s="28"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="26">
         <v>1411</v>
       </c>
@@ -18629,7 +18629,7 @@
       </c>
       <c r="L158" s="28"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="26">
         <v>1442</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>1448</v>
       </c>
@@ -18681,7 +18681,7 @@
       </c>
       <c r="L160" s="28"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="26">
         <v>1451</v>
       </c>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="L161" s="28"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>1455</v>
       </c>
@@ -18731,7 +18731,7 @@
       </c>
       <c r="L162" s="28"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="26">
         <v>1458</v>
       </c>
@@ -18756,7 +18756,7 @@
       </c>
       <c r="L163" s="28"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="26">
         <v>1466</v>
       </c>
@@ -18781,7 +18781,7 @@
       </c>
       <c r="L164" s="28"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="26">
         <v>1473</v>
       </c>
@@ -18806,7 +18806,7 @@
       </c>
       <c r="L165" s="28"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="26">
         <v>1477</v>
       </c>
@@ -18831,7 +18831,7 @@
       </c>
       <c r="L166" s="28"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="26">
         <v>1483</v>
       </c>
@@ -18856,7 +18856,7 @@
       </c>
       <c r="L167" s="28"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="26">
         <v>1486</v>
       </c>
@@ -18881,7 +18881,7 @@
       </c>
       <c r="L168" s="28"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="26">
         <v>1490</v>
       </c>
@@ -18906,7 +18906,7 @@
       </c>
       <c r="L169" s="28"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>1493</v>
       </c>
@@ -18929,7 +18929,7 @@
       </c>
       <c r="L170" s="28"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="26">
         <v>1494</v>
       </c>
@@ -18954,7 +18954,7 @@
       </c>
       <c r="L171" s="28"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="26">
         <v>1501</v>
       </c>
@@ -18979,7 +18979,7 @@
       </c>
       <c r="L172" s="28"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="26">
         <v>1507</v>
       </c>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="L173" s="28"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="26">
         <v>1536</v>
       </c>
@@ -19029,7 +19029,7 @@
       </c>
       <c r="L174" s="28"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="26">
         <v>1546</v>
       </c>
@@ -19054,7 +19054,7 @@
       </c>
       <c r="L175" s="28"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="26">
         <v>1552</v>
       </c>
@@ -19079,7 +19079,7 @@
       </c>
       <c r="L176" s="28"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="26">
         <v>1582</v>
       </c>
@@ -19104,7 +19104,7 @@
       </c>
       <c r="L177" s="28"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="26">
         <v>1584</v>
       </c>
@@ -19129,7 +19129,7 @@
       </c>
       <c r="L178" s="28"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="26">
         <v>1587</v>
       </c>
@@ -19154,7 +19154,7 @@
       </c>
       <c r="L179" s="28"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="26">
         <v>1589</v>
       </c>
@@ -19179,7 +19179,7 @@
       </c>
       <c r="L180" s="28"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="26">
         <v>1592</v>
       </c>
@@ -19204,7 +19204,7 @@
       </c>
       <c r="L181" s="28"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="26">
         <v>1595</v>
       </c>
@@ -19229,7 +19229,7 @@
       </c>
       <c r="L182" s="28"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="26">
         <v>1603</v>
       </c>
@@ -19254,7 +19254,7 @@
       </c>
       <c r="L183" s="28"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="26">
         <v>1606</v>
       </c>
@@ -19279,7 +19279,7 @@
       </c>
       <c r="L184" s="28"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="26">
         <v>1622</v>
       </c>
@@ -19304,7 +19304,7 @@
       </c>
       <c r="L185" s="28"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="26">
         <v>1630</v>
       </c>
@@ -19329,7 +19329,7 @@
       </c>
       <c r="L186" s="28"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="26">
         <v>1650</v>
       </c>
@@ -19354,7 +19354,7 @@
       </c>
       <c r="L187" s="28"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="26">
         <v>1653</v>
       </c>
@@ -19379,7 +19379,7 @@
       </c>
       <c r="L188" s="28"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="26">
         <v>1661</v>
       </c>
@@ -19404,7 +19404,7 @@
       </c>
       <c r="L189" s="28"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="26">
         <v>1669</v>
       </c>
@@ -19429,7 +19429,7 @@
       </c>
       <c r="L190" s="28"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="26">
         <v>1673</v>
       </c>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="L191" s="28"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="26">
         <v>1676</v>
       </c>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="L192" s="28"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="26">
         <v>1681</v>
       </c>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="L193" s="28"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="26">
         <v>1697</v>
       </c>
@@ -19529,7 +19529,7 @@
       </c>
       <c r="L194" s="28"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="26">
         <v>1711</v>
       </c>
@@ -19554,7 +19554,7 @@
       </c>
       <c r="L195" s="28"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="26">
         <v>1741</v>
       </c>
@@ -19579,7 +19579,7 @@
       </c>
       <c r="L196" s="28"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="26">
         <v>1745</v>
       </c>
@@ -19604,7 +19604,7 @@
       </c>
       <c r="L197" s="28"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="26">
         <v>1757</v>
       </c>
@@ -19629,7 +19629,7 @@
       </c>
       <c r="L198" s="28"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="26">
         <v>1758</v>
       </c>
@@ -19654,7 +19654,7 @@
       </c>
       <c r="L199" s="28"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="26">
         <v>1761</v>
       </c>
@@ -19679,7 +19679,7 @@
       </c>
       <c r="L200" s="28"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="26">
         <v>1763</v>
       </c>
@@ -19704,7 +19704,7 @@
       </c>
       <c r="L201" s="28"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="26">
         <v>1767</v>
       </c>
@@ -19729,7 +19729,7 @@
       </c>
       <c r="L202" s="28"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="26">
         <v>1769</v>
       </c>
@@ -19754,7 +19754,7 @@
       </c>
       <c r="L203" s="28"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="26">
         <v>1771</v>
       </c>
@@ -19779,7 +19779,7 @@
       </c>
       <c r="L204" s="28"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="26">
         <v>1772</v>
       </c>
@@ -19804,7 +19804,7 @@
       </c>
       <c r="L205" s="28"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="26">
         <v>1777</v>
       </c>
@@ -19829,7 +19829,7 @@
       </c>
       <c r="L206" s="28"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="26">
         <v>1780</v>
       </c>
@@ -19854,7 +19854,7 @@
       </c>
       <c r="L207" s="28"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="26">
         <v>1785</v>
       </c>
@@ -19879,7 +19879,7 @@
       </c>
       <c r="L208" s="28"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="26">
         <v>1812</v>
       </c>
@@ -19904,7 +19904,7 @@
       </c>
       <c r="L209" s="28"/>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="26">
         <v>1818</v>
       </c>
@@ -19927,7 +19927,7 @@
       </c>
       <c r="L210" s="28"/>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="26">
         <v>1820</v>
       </c>
@@ -19952,7 +19952,7 @@
       </c>
       <c r="L211" s="28"/>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="26">
         <v>1828</v>
       </c>
@@ -19979,7 +19979,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="26">
         <v>1851</v>
       </c>
@@ -20004,7 +20004,7 @@
       </c>
       <c r="L213" s="28"/>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="26">
         <v>1856</v>
       </c>
@@ -20029,7 +20029,7 @@
       </c>
       <c r="L214" s="28"/>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="26">
         <v>1861</v>
       </c>
@@ -20056,7 +20056,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="26">
         <v>1889</v>
       </c>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="L216" s="28"/>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="26">
         <v>1895</v>
       </c>
@@ -20106,7 +20106,7 @@
       </c>
       <c r="L217" s="28"/>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="26">
         <v>1899</v>
       </c>
@@ -20131,7 +20131,7 @@
       </c>
       <c r="L218" s="28"/>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="26">
         <v>1903</v>
       </c>
@@ -20156,7 +20156,7 @@
       </c>
       <c r="L219" s="28"/>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="26">
         <v>1909</v>
       </c>
@@ -20181,7 +20181,7 @@
       </c>
       <c r="L220" s="28"/>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="26">
         <v>1912</v>
       </c>
@@ -20206,7 +20206,7 @@
       </c>
       <c r="L221" s="28"/>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="26">
         <v>1919</v>
       </c>
@@ -20231,7 +20231,7 @@
       </c>
       <c r="L222" s="28"/>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="26">
         <v>1930</v>
       </c>
@@ -20256,7 +20256,7 @@
       </c>
       <c r="L223" s="28"/>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="26">
         <v>1936</v>
       </c>
@@ -20283,7 +20283,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="26">
         <v>1941</v>
       </c>
@@ -20308,7 +20308,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="26">
         <v>1973</v>
       </c>
@@ -20335,7 +20335,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="26">
         <v>1986</v>
       </c>
@@ -20358,7 +20358,7 @@
       </c>
       <c r="L227" s="28"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="26">
         <v>1996</v>
       </c>
@@ -20383,7 +20383,7 @@
       </c>
       <c r="L228" s="28"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="26">
         <v>2051</v>
       </c>
@@ -20408,7 +20408,7 @@
       </c>
       <c r="L229" s="28"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="26">
         <v>2163</v>
       </c>
@@ -20433,7 +20433,7 @@
       </c>
       <c r="L230" s="28"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="26">
         <v>2165</v>
       </c>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="L231" s="28"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="26">
         <v>2170</v>
       </c>
@@ -20481,7 +20481,7 @@
       </c>
       <c r="L232" s="28"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="26">
         <v>2187</v>
       </c>
@@ -20506,7 +20506,7 @@
       </c>
       <c r="L233" s="28"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="26">
         <v>2190</v>
       </c>
@@ -20529,7 +20529,7 @@
       </c>
       <c r="L234" s="28"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="26">
         <v>2192</v>
       </c>
@@ -20554,7 +20554,7 @@
       </c>
       <c r="L235" s="28"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="26">
         <v>2208</v>
       </c>
@@ -20577,7 +20577,7 @@
       </c>
       <c r="L236" s="28"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="26">
         <v>2213</v>
       </c>
@@ -20604,7 +20604,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="26">
         <v>2252</v>
       </c>
@@ -20629,7 +20629,7 @@
       </c>
       <c r="L238" s="28"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="26">
         <v>2254</v>
       </c>
@@ -20654,7 +20654,7 @@
       </c>
       <c r="L239" s="28"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="26">
         <v>2289</v>
       </c>
@@ -20681,7 +20681,7 @@
       </c>
       <c r="L240" s="28"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="26">
         <v>2301</v>
       </c>
@@ -20706,7 +20706,7 @@
       </c>
       <c r="L241" s="28"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="26">
         <v>2324</v>
       </c>
@@ -20731,7 +20731,7 @@
       </c>
       <c r="L242" s="28"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="26">
         <v>2327</v>
       </c>
@@ -20756,7 +20756,7 @@
       </c>
       <c r="L243" s="28"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="26">
         <v>2332</v>
       </c>
@@ -20781,7 +20781,7 @@
       </c>
       <c r="L244" s="28"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="26">
         <v>2360</v>
       </c>
@@ -20806,7 +20806,7 @@
       </c>
       <c r="L245" s="28"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="26">
         <v>2365</v>
       </c>
@@ -20831,7 +20831,7 @@
       </c>
       <c r="L246" s="28"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="26">
         <v>2403</v>
       </c>
@@ -20856,7 +20856,7 @@
       </c>
       <c r="L247" s="28"/>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="26">
         <v>2415</v>
       </c>
@@ -20881,7 +20881,7 @@
       </c>
       <c r="L248" s="28"/>
     </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="26">
         <v>2438</v>
       </c>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="L249" s="28"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="26">
         <v>2444</v>
       </c>
@@ -20931,7 +20931,7 @@
       </c>
       <c r="L250" s="28"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="26">
         <v>2458</v>
       </c>
@@ -20956,7 +20956,7 @@
       </c>
       <c r="L251" s="28"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="26">
         <v>2475</v>
       </c>
@@ -20981,7 +20981,7 @@
       </c>
       <c r="L252" s="28"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="26">
         <v>2478</v>
       </c>
@@ -21006,7 +21006,7 @@
       </c>
       <c r="L253" s="28"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="26">
         <v>2481</v>
       </c>
@@ -21031,7 +21031,7 @@
       </c>
       <c r="L254" s="28"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="26">
         <v>2492</v>
       </c>
@@ -21056,7 +21056,7 @@
       </c>
       <c r="L255" s="28"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="26">
         <v>2495</v>
       </c>
@@ -21083,7 +21083,7 @@
       </c>
       <c r="L256" s="28"/>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="26">
         <v>2501</v>
       </c>
@@ -21108,7 +21108,7 @@
       </c>
       <c r="L257" s="28"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="26">
         <v>2510</v>
       </c>
@@ -21133,7 +21133,7 @@
       </c>
       <c r="L258" s="28"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="26">
         <v>2519</v>
       </c>
@@ -21158,7 +21158,7 @@
       </c>
       <c r="L259" s="28"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="26">
         <v>2525</v>
       </c>
@@ -21183,7 +21183,7 @@
       </c>
       <c r="L260" s="28"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="26">
         <v>2534</v>
       </c>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="L261" s="28"/>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="26">
         <v>2543</v>
       </c>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="L262" s="28"/>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="26">
         <v>2545</v>
       </c>
@@ -21258,7 +21258,7 @@
       </c>
       <c r="L263" s="28"/>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="26">
         <v>2549</v>
       </c>
@@ -21281,7 +21281,7 @@
       </c>
       <c r="L264" s="28"/>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="26">
         <v>2563</v>
       </c>
@@ -21306,7 +21306,7 @@
       </c>
       <c r="L265" s="28"/>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="26">
         <v>2569</v>
       </c>
@@ -21331,7 +21331,7 @@
       </c>
       <c r="L266" s="28"/>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="26">
         <v>2581</v>
       </c>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="L267" s="28"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="26">
         <v>2588</v>
       </c>
@@ -21381,7 +21381,7 @@
       </c>
       <c r="L268" s="28"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="26">
         <v>2604</v>
       </c>
@@ -21406,7 +21406,7 @@
       </c>
       <c r="L269" s="28"/>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="26">
         <v>2608</v>
       </c>
@@ -21431,7 +21431,7 @@
       </c>
       <c r="L270" s="28"/>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="26">
         <v>2623</v>
       </c>
@@ -21458,7 +21458,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="26">
         <v>2629</v>
       </c>
@@ -21483,7 +21483,7 @@
       </c>
       <c r="L272" s="28"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="26">
         <v>2637</v>
       </c>
@@ -21508,7 +21508,7 @@
       </c>
       <c r="L273" s="28"/>
     </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="26">
         <v>2642</v>
       </c>
@@ -21533,7 +21533,7 @@
       </c>
       <c r="L274" s="28"/>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="26">
         <v>2648</v>
       </c>
@@ -21558,7 +21558,7 @@
       </c>
       <c r="L275" s="28"/>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="26">
         <v>2675</v>
       </c>
@@ -21581,7 +21581,7 @@
       <c r="K276" s="28"/>
       <c r="L276" s="28"/>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="26">
         <v>2691</v>
       </c>
@@ -21620,10 +21620,10 @@
   <dimension ref="A1:U295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E275" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A295" sqref="A295"/>
+      <selection pane="bottomRight" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -24199,7 +24199,7 @@
       </c>
       <c r="C98" s="28">
         <f t="shared" si="1"/>
-        <v>-28</v>
+        <v>2</v>
       </c>
       <c r="D98" s="28" t="s">
         <v>24</v>
@@ -24218,14 +24218,14 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
-        <v>857</v>
+        <v>887</v>
       </c>
       <c r="B99" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="28">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="D99" s="28" t="s">
         <v>30</v>
@@ -29332,7 +29332,7 @@
   <dimension ref="A1:U251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="A248" sqref="A248"/>
+      <selection activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_YO.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_YO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE53CFE-C69D-49AA-A866-B5C857F88A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E3E3F1-F23E-4113-B88E-D11C1246D67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -2564,7 +2564,7 @@
   <dimension ref="A1:U242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E180" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E148" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="A198" sqref="A198"/>
@@ -14632,11 +14632,11 @@
   </sheetPr>
   <dimension ref="A1:U278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A278" sqref="A278"/>
+      <selection pane="bottomRight" activeCell="G93" sqref="G93:I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29331,8 +29331,8 @@
   </sheetPr>
   <dimension ref="A1:U251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E237" sqref="E237"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29370,7 +29370,9 @@
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>

--- a/Multi-taxa_data/PLITs/extraction/PLIT_YO.xlsx
+++ b/Multi-taxa_data/PLITs/extraction/PLIT_YO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\PLITs\extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC0FA9-CF4A-4E39-AF8A-83F54029398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5451D02E-48AC-479A-BC2C-D20D3958184B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D1" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'D1'!$A$4:$U$198</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'D2'!$A$4:$U$236</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'S1'!$A$4:$U$278</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'S2'!$A$4:$U$295</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2561,7 +2563,7 @@
   </sheetPr>
   <dimension ref="A1:U242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -2583,7 +2585,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -2601,7 +2603,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -2619,7 +2621,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -2638,7 +2640,7 @@
       <c r="L3" s="4"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2685,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>33</v>
       </c>
@@ -2715,7 +2717,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>37</v>
       </c>
@@ -2742,7 +2744,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>50</v>
       </c>
@@ -2769,7 +2771,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>67</v>
       </c>
@@ -2800,7 +2802,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>71</v>
       </c>
@@ -2831,7 +2833,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>85</v>
       </c>
@@ -2858,7 +2860,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>91</v>
       </c>
@@ -2885,7 +2887,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>112</v>
       </c>
@@ -2912,7 +2914,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>140</v>
       </c>
@@ -2939,7 +2941,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>173</v>
       </c>
@@ -2966,7 +2968,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>176</v>
       </c>
@@ -2993,7 +2995,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>194</v>
       </c>
@@ -3018,7 +3020,7 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>196</v>
       </c>
@@ -3043,7 +3045,7 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>200</v>
       </c>
@@ -3070,7 +3072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>209</v>
       </c>
@@ -3095,7 +3097,7 @@
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>219</v>
       </c>
@@ -3120,7 +3122,7 @@
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>221</v>
       </c>
@@ -3145,7 +3147,7 @@
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>228</v>
       </c>
@@ -3168,7 +3170,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>231</v>
       </c>
@@ -3193,7 +3195,7 @@
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>237</v>
       </c>
@@ -3218,7 +3220,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>243</v>
       </c>
@@ -3241,7 +3243,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>246</v>
       </c>
@@ -3266,7 +3268,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>253</v>
       </c>
@@ -3293,7 +3295,7 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>259</v>
       </c>
@@ -3318,7 +3320,7 @@
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>290</v>
       </c>
@@ -3343,7 +3345,7 @@
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>296</v>
       </c>
@@ -3368,7 +3370,7 @@
       </c>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>310</v>
       </c>
@@ -3393,7 +3395,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>322</v>
       </c>
@@ -3418,7 +3420,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>329</v>
       </c>
@@ -3443,7 +3445,7 @@
       </c>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>355</v>
       </c>
@@ -3468,7 +3470,7 @@
       </c>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>380</v>
       </c>
@@ -3493,7 +3495,7 @@
       </c>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>385</v>
       </c>
@@ -3518,7 +3520,7 @@
       </c>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>413</v>
       </c>
@@ -3543,7 +3545,7 @@
       </c>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>421</v>
       </c>
@@ -3566,7 +3568,7 @@
       </c>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>428</v>
       </c>
@@ -3591,7 +3593,7 @@
       </c>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>433</v>
       </c>
@@ -3616,7 +3618,7 @@
       </c>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>436</v>
       </c>
@@ -3641,7 +3643,7 @@
       </c>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>456</v>
       </c>
@@ -3666,7 +3668,7 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>464</v>
       </c>
@@ -3691,7 +3693,7 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>495</v>
       </c>
@@ -3716,7 +3718,7 @@
       </c>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>510</v>
       </c>
@@ -3741,7 +3743,7 @@
       </c>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>529</v>
       </c>
@@ -3766,7 +3768,7 @@
       </c>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>535</v>
       </c>
@@ -3791,7 +3793,7 @@
       </c>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>553</v>
       </c>
@@ -3816,7 +3818,7 @@
       </c>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>630</v>
       </c>
@@ -3841,7 +3843,7 @@
       </c>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>668</v>
       </c>
@@ -3866,7 +3868,7 @@
       </c>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>706</v>
       </c>
@@ -3889,7 +3891,7 @@
       </c>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>709</v>
       </c>
@@ -3914,7 +3916,7 @@
       </c>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>711</v>
       </c>
@@ -3937,7 +3939,7 @@
       </c>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>715</v>
       </c>
@@ -3962,7 +3964,7 @@
       </c>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>726</v>
       </c>
@@ -3987,7 +3989,7 @@
       </c>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>736</v>
       </c>
@@ -4012,7 +4014,7 @@
       </c>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>750</v>
       </c>
@@ -4037,7 +4039,7 @@
       </c>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>754</v>
       </c>
@@ -4062,7 +4064,7 @@
       </c>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>760</v>
       </c>
@@ -4087,7 +4089,7 @@
       </c>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>766</v>
       </c>
@@ -4110,7 +4112,7 @@
       </c>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>768</v>
       </c>
@@ -4133,7 +4135,7 @@
       </c>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>779</v>
       </c>
@@ -4158,7 +4160,7 @@
       </c>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>787</v>
       </c>
@@ -4183,7 +4185,7 @@
       </c>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>793</v>
       </c>
@@ -4208,7 +4210,7 @@
       </c>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>800</v>
       </c>
@@ -4233,7 +4235,7 @@
       </c>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>806</v>
       </c>
@@ -4258,7 +4260,7 @@
       </c>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>815</v>
       </c>
@@ -4281,7 +4283,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>824</v>
       </c>
@@ -4306,7 +4308,7 @@
       </c>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>835</v>
       </c>
@@ -4331,7 +4333,7 @@
       </c>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>870</v>
       </c>
@@ -4356,7 +4358,7 @@
       </c>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>873</v>
       </c>
@@ -4381,7 +4383,7 @@
       </c>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>877</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>880</v>
       </c>
@@ -4433,7 +4435,7 @@
       </c>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>887</v>
       </c>
@@ -4458,7 +4460,7 @@
       </c>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>890</v>
       </c>
@@ -4483,7 +4485,7 @@
       </c>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>896</v>
       </c>
@@ -4508,7 +4510,7 @@
       </c>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>898</v>
       </c>
@@ -4533,7 +4535,7 @@
       </c>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>900</v>
       </c>
@@ -4558,7 +4560,7 @@
       </c>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>904</v>
       </c>
@@ -4583,7 +4585,7 @@
       </c>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>912</v>
       </c>
@@ -4608,7 +4610,7 @@
       </c>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>915</v>
       </c>
@@ -4633,7 +4635,7 @@
       </c>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>922</v>
       </c>
@@ -4658,7 +4660,7 @@
       </c>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>940</v>
       </c>
@@ -4683,7 +4685,7 @@
       </c>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>946</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>952</v>
       </c>
@@ -4733,7 +4735,7 @@
       </c>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>972</v>
       </c>
@@ -4758,7 +4760,7 @@
       </c>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>977</v>
       </c>
@@ -4783,7 +4785,7 @@
       </c>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>981</v>
       </c>
@@ -4808,7 +4810,7 @@
       </c>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>984</v>
       </c>
@@ -4833,7 +4835,7 @@
       </c>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>988</v>
       </c>
@@ -4856,7 +4858,7 @@
       </c>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>991</v>
       </c>
@@ -4881,7 +4883,7 @@
       </c>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>1005</v>
       </c>
@@ -4906,7 +4908,7 @@
       </c>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>1007</v>
       </c>
@@ -4931,7 +4933,7 @@
       </c>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>1020</v>
       </c>
@@ -4956,7 +4958,7 @@
       </c>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>1022</v>
       </c>
@@ -4981,7 +4983,7 @@
       </c>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>1042</v>
       </c>
@@ -5006,7 +5008,7 @@
       </c>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>1048</v>
       </c>
@@ -5031,7 +5033,7 @@
       </c>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>1086</v>
       </c>
@@ -5056,7 +5058,7 @@
       </c>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="14">
         <v>1091</v>
       </c>
@@ -5079,7 +5081,7 @@
       </c>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="7">
         <v>1119</v>
       </c>
@@ -5096,7 +5098,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="7">
         <v>1280</v>
       </c>
@@ -5114,7 +5116,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="7">
         <v>1285</v>
       </c>
@@ -5132,7 +5134,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="7">
         <v>1311</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
         <v>1317</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7">
         <v>1340</v>
       </c>
@@ -5186,7 +5188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="7">
         <v>1367</v>
       </c>
@@ -5204,7 +5206,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="7">
         <v>1376</v>
       </c>
@@ -5222,7 +5224,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
         <v>1384</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="7">
         <v>1386</v>
       </c>
@@ -5258,7 +5260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7">
         <v>1404</v>
       </c>
@@ -5274,7 +5276,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="7">
         <v>1406</v>
       </c>
@@ -5292,7 +5294,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="7">
         <v>1415</v>
       </c>
@@ -5310,7 +5312,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7">
         <v>1422</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="7">
         <v>1426</v>
       </c>
@@ -5344,7 +5346,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="7">
         <v>1428</v>
       </c>
@@ -5362,7 +5364,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="7">
         <v>1430</v>
       </c>
@@ -5381,7 +5383,7 @@
       </c>
       <c r="L116" s="7"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="7">
         <v>1464</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="7">
         <v>1467</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="7">
         <v>1471</v>
       </c>
@@ -5435,7 +5437,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="7">
         <v>1492</v>
       </c>
@@ -5453,7 +5455,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="7">
         <v>1504</v>
       </c>
@@ -5471,7 +5473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1588</v>
       </c>
@@ -5490,7 +5492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="7">
         <v>1598</v>
       </c>
@@ -5508,7 +5510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="7">
         <v>1661</v>
       </c>
@@ -5525,7 +5527,7 @@
       </c>
       <c r="L124" s="7"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="7">
         <v>1669</v>
       </c>
@@ -5558,7 +5560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
         <v>1678</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="7">
         <v>1678</v>
       </c>
@@ -5594,7 +5596,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1683</v>
       </c>
@@ -5630,7 +5632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1732</v>
       </c>
@@ -5649,7 +5651,7 @@
       </c>
       <c r="L131" s="7"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="7">
         <v>1754</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="7">
         <v>1760</v>
       </c>
@@ -5685,7 +5687,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="7">
         <v>1763</v>
       </c>
@@ -5703,7 +5705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="7">
         <v>1770</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="7">
         <v>1775</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="7">
         <v>1785</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="7">
         <v>1803</v>
       </c>
@@ -5775,7 +5777,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="7">
         <v>1818</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="7">
         <v>1826</v>
       </c>
@@ -5811,7 +5813,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="7">
         <v>1834</v>
       </c>
@@ -5829,7 +5831,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="7">
         <v>1852</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
         <v>1905</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="7">
         <v>1907</v>
       </c>
@@ -5883,7 +5885,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="7">
         <v>1918</v>
       </c>
@@ -5901,7 +5903,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="7">
         <v>1939</v>
       </c>
@@ -5919,7 +5921,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="7">
         <v>1942</v>
       </c>
@@ -5937,7 +5939,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="7">
         <v>1969</v>
       </c>
@@ -5955,7 +5957,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="7">
         <v>1980</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="7">
         <v>1993</v>
       </c>
@@ -5991,7 +5993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="7">
         <v>1997</v>
       </c>
@@ -6009,7 +6011,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="7">
         <v>2004</v>
       </c>
@@ -6027,7 +6029,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="7">
         <v>2028</v>
       </c>
@@ -6049,7 +6051,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="7">
         <v>2035</v>
       </c>
@@ -6067,7 +6069,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="7">
         <v>2040</v>
       </c>
@@ -6086,7 +6088,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="7">
         <v>2045</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="7">
         <v>2070</v>
       </c>
@@ -6120,7 +6122,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="7">
         <v>2080</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="7">
         <v>2085</v>
       </c>
@@ -6156,7 +6158,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="7">
         <v>2092</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="7">
         <v>2148</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="17">
         <v>2164</v>
       </c>
@@ -6206,7 +6208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="7">
         <v>2169</v>
       </c>
@@ -6224,7 +6226,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="7">
         <v>2178</v>
       </c>
@@ -6242,7 +6244,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="7">
         <v>2232</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="7">
         <v>2242</v>
       </c>
@@ -6281,7 +6283,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="7">
         <v>2254</v>
       </c>
@@ -6299,7 +6301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="7">
         <v>2262</v>
       </c>
@@ -6317,7 +6319,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="7">
         <v>2295</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="7">
         <v>2433</v>
       </c>
@@ -6354,7 +6356,7 @@
       </c>
       <c r="L170" s="7"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="7">
         <v>2442</v>
       </c>
@@ -6372,7 +6374,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="7">
         <v>2459</v>
       </c>
@@ -6390,7 +6392,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="17">
         <v>2468</v>
       </c>
@@ -6408,7 +6410,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="7">
         <v>2470</v>
       </c>
@@ -6426,7 +6428,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="7">
         <v>2473</v>
       </c>
@@ -6447,7 +6449,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="7">
         <v>2482</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="7">
         <v>2509</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="7">
         <v>2517</v>
       </c>
@@ -6499,7 +6501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="7">
         <v>2531</v>
       </c>
@@ -6517,7 +6519,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="7">
         <v>2535</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="7">
         <v>2552</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="7">
         <v>2580</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="7">
         <v>2582</v>
       </c>
@@ -6585,7 +6587,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="7">
         <v>2587</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="7">
         <v>2591</v>
       </c>
@@ -6621,7 +6623,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="7">
         <v>2593</v>
       </c>
@@ -6639,7 +6641,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="7">
         <v>2635</v>
       </c>
@@ -6657,7 +6659,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="7">
         <v>2637</v>
       </c>
@@ -6675,7 +6677,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="7">
         <v>2640</v>
       </c>
@@ -6693,7 +6695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="7">
         <v>2647</v>
       </c>
@@ -6711,7 +6713,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="7">
         <v>2662</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="7">
         <v>2667</v>
       </c>
@@ -6747,7 +6749,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="7">
         <v>2675</v>
       </c>
@@ -6765,7 +6767,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="7">
         <v>2683</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="7">
         <v>2690</v>
       </c>
@@ -6801,7 +6803,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="7">
         <v>2695</v>
       </c>
@@ -6819,7 +6821,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="7">
         <v>2710</v>
       </c>
@@ -6828,7 +6830,7 @@
       <c r="D197" s="7"/>
       <c r="K197" s="7"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="7" t="s">
         <v>138</v>
       </c>
@@ -6837,7 +6839,7 @@
       <c r="D198" s="7"/>
       <c r="K198" s="7"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -14636,11 +14638,11 @@
   </sheetPr>
   <dimension ref="A1:U278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G93" sqref="G93:I103"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -15642,7 +15644,7 @@
         <v>325</v>
       </c>
       <c r="B39" s="28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C39" s="28">
         <f t="shared" si="0"/>
@@ -21606,6 +21608,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U278" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="H68:I68"/>
     <mergeCell ref="K149:L149"/>
@@ -21624,10 +21627,10 @@
   <dimension ref="A1:U295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -21645,7 +21648,7 @@
     <col min="12" max="22" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
@@ -21663,7 +21666,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -21681,7 +21684,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -21700,7 +21703,7 @@
       <c r="L3" s="4"/>
       <c r="O3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
@@ -21745,7 +21748,7 @@
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>23</v>
       </c>
@@ -21778,7 +21781,7 @@
       <c r="T5" s="7"/>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>26</v>
       </c>
@@ -21806,7 +21809,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="26">
         <v>44</v>
       </c>
@@ -21834,7 +21837,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>47</v>
       </c>
@@ -21866,7 +21869,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
         <v>49</v>
       </c>
@@ -21898,12 +21901,12 @@
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>59</v>
       </c>
       <c r="B10" s="28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="28">
         <f t="shared" si="0"/>
@@ -21926,7 +21929,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
         <v>61</v>
       </c>
@@ -21954,7 +21957,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
         <v>67</v>
       </c>
@@ -21982,7 +21985,7 @@
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
         <v>81</v>
       </c>
@@ -22010,7 +22013,7 @@
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
         <v>83</v>
       </c>
@@ -22038,7 +22041,7 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>86</v>
       </c>
@@ -22064,7 +22067,7 @@
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>88</v>
       </c>
@@ -22090,7 +22093,7 @@
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>94</v>
       </c>
@@ -22116,7 +22119,7 @@
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>104</v>
       </c>
@@ -22142,7 +22145,7 @@
       <c r="L18" s="31"/>
       <c r="M18" s="28"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
         <v>109</v>
       </c>
@@ -22168,7 +22171,7 @@
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>115</v>
       </c>
@@ -22194,7 +22197,7 @@
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>116</v>
       </c>
@@ -22220,7 +22223,7 @@
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>128</v>
       </c>
@@ -22246,7 +22249,7 @@
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="26">
         <v>139</v>
       </c>
@@ -22272,7 +22275,7 @@
       <c r="L23" s="28"/>
       <c r="M23" s="28"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
         <v>145</v>
       </c>
@@ -22298,7 +22301,7 @@
       <c r="L24" s="28"/>
       <c r="M24" s="28"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>148</v>
       </c>
@@ -22322,7 +22325,7 @@
       <c r="L25" s="28"/>
       <c r="M25" s="28"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="26">
         <v>160</v>
       </c>
@@ -22348,7 +22351,7 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="26">
         <v>181</v>
       </c>
@@ -22374,7 +22377,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="28"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>193</v>
       </c>
@@ -22400,7 +22403,7 @@
       <c r="L28" s="28"/>
       <c r="M28" s="28"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>196</v>
       </c>
@@ -22426,7 +22429,7 @@
       <c r="L29" s="28"/>
       <c r="M29" s="28"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>223</v>
       </c>
@@ -22452,7 +22455,7 @@
       <c r="L30" s="28"/>
       <c r="M30" s="28"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="26">
         <v>250</v>
       </c>
@@ -22478,7 +22481,7 @@
       <c r="L31" s="28"/>
       <c r="M31" s="28"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
         <v>261</v>
       </c>
@@ -22504,7 +22507,7 @@
       <c r="L32" s="28"/>
       <c r="M32" s="28"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="26">
         <v>265</v>
       </c>
@@ -22530,7 +22533,7 @@
       <c r="L33" s="28"/>
       <c r="M33" s="28"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="26">
         <v>299</v>
       </c>
@@ -22556,7 +22559,7 @@
       <c r="L34" s="28"/>
       <c r="M34" s="28"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>305</v>
       </c>
@@ -22584,7 +22587,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="26">
         <v>323</v>
       </c>
@@ -22610,7 +22613,7 @@
       <c r="L36" s="28"/>
       <c r="M36" s="28"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>325</v>
       </c>
@@ -22636,7 +22639,7 @@
       <c r="L37" s="28"/>
       <c r="M37" s="28"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="26">
         <v>334</v>
       </c>
@@ -22662,7 +22665,7 @@
       <c r="L38" s="28"/>
       <c r="M38" s="28"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="26">
         <v>342</v>
       </c>
@@ -22686,7 +22689,7 @@
       <c r="L39" s="28"/>
       <c r="M39" s="28"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>346</v>
       </c>
@@ -22712,7 +22715,7 @@
       <c r="L40" s="28"/>
       <c r="M40" s="28"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="26">
         <v>361</v>
       </c>
@@ -22738,7 +22741,7 @@
       <c r="L41" s="28"/>
       <c r="M41" s="28"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>380</v>
       </c>
@@ -22764,7 +22767,7 @@
       <c r="L42" s="28"/>
       <c r="M42" s="28"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="26">
         <v>385</v>
       </c>
@@ -22790,7 +22793,7 @@
       <c r="L43" s="28"/>
       <c r="M43" s="28"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="26">
         <v>392</v>
       </c>
@@ -22816,7 +22819,7 @@
       <c r="L44" s="28"/>
       <c r="M44" s="28"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="26">
         <v>397</v>
       </c>
@@ -22838,7 +22841,7 @@
       <c r="L45" s="28"/>
       <c r="M45" s="28"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="26">
         <v>405</v>
       </c>
@@ -22864,7 +22867,7 @@
       <c r="L46" s="28"/>
       <c r="M46" s="28"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>415</v>
       </c>
@@ -22890,7 +22893,7 @@
       <c r="L47" s="28"/>
       <c r="M47" s="28"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="26">
         <v>422</v>
       </c>
@@ -22916,7 +22919,7 @@
       <c r="L48" s="28"/>
       <c r="M48" s="28"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <v>424</v>
       </c>
@@ -22942,7 +22945,7 @@
       <c r="L49" s="28"/>
       <c r="M49" s="28"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="26">
         <v>433</v>
       </c>
@@ -22968,7 +22971,7 @@
       <c r="L50" s="28"/>
       <c r="M50" s="28"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="26">
         <v>452</v>
       </c>
@@ -22994,7 +22997,7 @@
       <c r="L51" s="28"/>
       <c r="M51" s="28"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>459</v>
       </c>
@@ -23020,7 +23023,7 @@
       <c r="L52" s="28"/>
       <c r="M52" s="28"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="26">
         <v>471</v>
       </c>
@@ -23046,7 +23049,7 @@
       <c r="L53" s="28"/>
       <c r="M53" s="28"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="26">
         <v>475</v>
       </c>
@@ -23072,7 +23075,7 @@
       <c r="L54" s="28"/>
       <c r="M54" s="28"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="26">
         <v>477</v>
       </c>
@@ -23098,7 +23101,7 @@
       <c r="L55" s="28"/>
       <c r="M55" s="28"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="26">
         <v>485</v>
       </c>
@@ -23124,7 +23127,7 @@
       <c r="L56" s="28"/>
       <c r="M56" s="28"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="26">
         <v>489</v>
       </c>
@@ -23150,7 +23153,7 @@
       <c r="L57" s="28"/>
       <c r="M57" s="28"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="26">
         <v>493</v>
       </c>
@@ -23176,7 +23179,7 @@
       <c r="L58" s="28"/>
       <c r="M58" s="28"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="26">
         <v>505</v>
       </c>
@@ -23204,7 +23207,7 @@
       </c>
       <c r="M59" s="28"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="26">
         <v>524</v>
       </c>
@@ -23230,7 +23233,7 @@
       <c r="L60" s="28"/>
       <c r="M60" s="28"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="26">
         <v>527</v>
       </c>
@@ -23256,7 +23259,7 @@
       <c r="L61" s="28"/>
       <c r="M61" s="28"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="26">
         <v>536</v>
       </c>
@@ -23282,7 +23285,7 @@
       <c r="L62" s="28"/>
       <c r="M62" s="28"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="26">
         <v>544</v>
       </c>
@@ -23308,7 +23311,7 @@
       <c r="L63" s="28"/>
       <c r="M63" s="28"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="26">
         <v>549</v>
       </c>
@@ -23334,7 +23337,7 @@
       <c r="L64" s="28"/>
       <c r="M64" s="28"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="26">
         <v>558</v>
       </c>
@@ -23360,7 +23363,7 @@
       <c r="L65" s="31"/>
       <c r="M65" s="28"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="26">
         <v>570</v>
       </c>
@@ -23386,7 +23389,7 @@
       <c r="L66" s="28"/>
       <c r="M66" s="28"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="26">
         <v>572</v>
       </c>
@@ -23412,7 +23415,7 @@
       <c r="L67" s="28"/>
       <c r="M67" s="28"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="26">
         <v>575</v>
       </c>
@@ -23438,7 +23441,7 @@
       <c r="L68" s="28"/>
       <c r="M68" s="28"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="26">
         <v>584</v>
       </c>
@@ -23464,7 +23467,7 @@
       <c r="L69" s="28"/>
       <c r="M69" s="28"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="26">
         <v>592</v>
       </c>
@@ -23490,7 +23493,7 @@
       <c r="L70" s="28"/>
       <c r="M70" s="28"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="26">
         <v>598</v>
       </c>
@@ -23516,7 +23519,7 @@
       <c r="L71" s="28"/>
       <c r="M71" s="28"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="26">
         <v>610</v>
       </c>
@@ -23542,7 +23545,7 @@
       <c r="L72" s="28"/>
       <c r="M72" s="28"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="26">
         <v>616</v>
       </c>
@@ -23568,7 +23571,7 @@
       <c r="L73" s="28"/>
       <c r="M73" s="28"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="26">
         <v>618</v>
       </c>
@@ -23594,7 +23597,7 @@
       <c r="L74" s="28"/>
       <c r="M74" s="28"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>620</v>
       </c>
@@ -23618,7 +23621,7 @@
       <c r="L75" s="28"/>
       <c r="M75" s="28"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="26">
         <v>622</v>
       </c>
@@ -23644,7 +23647,7 @@
       <c r="L76" s="28"/>
       <c r="M76" s="28"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="26">
         <v>629</v>
       </c>
@@ -23670,7 +23673,7 @@
       <c r="L77" s="28"/>
       <c r="M77" s="28"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="26">
         <v>639</v>
       </c>
@@ -23696,7 +23699,7 @@
       <c r="L78" s="28"/>
       <c r="M78" s="28"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="26">
         <v>678</v>
       </c>
@@ -23722,7 +23725,7 @@
       <c r="L79" s="28"/>
       <c r="M79" s="28"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="26">
         <v>682</v>
       </c>
@@ -23748,7 +23751,7 @@
       <c r="L80" s="28"/>
       <c r="M80" s="28"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="26">
         <v>686</v>
       </c>
@@ -23774,7 +23777,7 @@
       <c r="L81" s="28"/>
       <c r="M81" s="28"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="26">
         <v>705</v>
       </c>
@@ -23800,7 +23803,7 @@
       <c r="L82" s="28"/>
       <c r="M82" s="28"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="26">
         <v>733</v>
       </c>
@@ -23826,7 +23829,7 @@
       <c r="L83" s="28"/>
       <c r="M83" s="28"/>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="26">
         <v>737</v>
       </c>
@@ -23854,7 +23857,7 @@
       </c>
       <c r="M84" s="36"/>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="26">
         <v>779</v>
       </c>
@@ -23880,7 +23883,7 @@
       <c r="L85" s="28"/>
       <c r="M85" s="28"/>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="26">
         <v>789</v>
       </c>
@@ -23908,7 +23911,7 @@
       <c r="L86" s="28"/>
       <c r="M86" s="28"/>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="26">
         <v>792</v>
       </c>
@@ -23934,7 +23937,7 @@
       <c r="L87" s="28"/>
       <c r="M87" s="28"/>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="26">
         <v>795</v>
       </c>
@@ -23960,7 +23963,7 @@
       <c r="L88" s="28"/>
       <c r="M88" s="28"/>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="26">
         <v>798</v>
       </c>
@@ -23988,7 +23991,7 @@
       <c r="L89" s="28"/>
       <c r="M89" s="28"/>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="26">
         <v>802</v>
       </c>
@@ -24014,7 +24017,7 @@
       <c r="L90" s="28"/>
       <c r="M90" s="28"/>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="26">
         <v>809</v>
       </c>
@@ -24040,7 +24043,7 @@
       <c r="L91" s="28"/>
       <c r="M91" s="28"/>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="26">
         <v>814</v>
       </c>
@@ -24066,7 +24069,7 @@
       <c r="L92" s="28"/>
       <c r="M92" s="28"/>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="26">
         <v>833</v>
       </c>
@@ -24090,7 +24093,7 @@
       <c r="L93" s="28"/>
       <c r="M93" s="28"/>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="26">
         <v>844</v>
       </c>
@@ -24116,7 +24119,7 @@
       <c r="L94" s="28"/>
       <c r="M94" s="28"/>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="26">
         <v>848</v>
       </c>
@@ -24142,7 +24145,7 @@
       <c r="L95" s="28"/>
       <c r="M95" s="28"/>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="26">
         <v>851</v>
       </c>
@@ -24168,7 +24171,7 @@
       <c r="L96" s="28"/>
       <c r="M96" s="28"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="26">
         <v>856</v>
       </c>
@@ -24194,7 +24197,7 @@
       <c r="L97" s="28"/>
       <c r="M97" s="28"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="26">
         <v>885</v>
       </c>
@@ -24220,7 +24223,7 @@
       <c r="L98" s="28"/>
       <c r="M98" s="28"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="26">
         <v>887</v>
       </c>
@@ -24246,7 +24249,7 @@
       <c r="L99" s="28"/>
       <c r="M99" s="28"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="26">
         <v>891</v>
       </c>
@@ -24272,7 +24275,7 @@
       <c r="L100" s="28"/>
       <c r="M100" s="28"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="26">
         <v>899</v>
       </c>
@@ -24298,7 +24301,7 @@
       <c r="L101" s="28"/>
       <c r="M101" s="28"/>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="26">
         <v>912</v>
       </c>
@@ -24324,7 +24327,7 @@
       <c r="L102" s="28"/>
       <c r="M102" s="28"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="26">
         <v>915</v>
       </c>
@@ -24350,7 +24353,7 @@
       <c r="L103" s="28"/>
       <c r="M103" s="28"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="26">
         <v>920</v>
       </c>
@@ -24376,7 +24379,7 @@
       <c r="L104" s="28"/>
       <c r="M104" s="28"/>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="26">
         <v>924</v>
       </c>
@@ -24398,7 +24401,7 @@
       <c r="L105" s="28"/>
       <c r="M105" s="28"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="26">
         <v>930</v>
       </c>
@@ -24424,7 +24427,7 @@
       <c r="L106" s="28"/>
       <c r="M106" s="28"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="26">
         <v>935</v>
       </c>
@@ -24450,7 +24453,7 @@
       <c r="L107" s="28"/>
       <c r="M107" s="28"/>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="26">
         <v>944</v>
       </c>
@@ -24474,7 +24477,7 @@
       <c r="L108" s="28"/>
       <c r="M108" s="28"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="26">
         <v>955</v>
       </c>
@@ -24498,7 +24501,7 @@
       <c r="L109" s="28"/>
       <c r="M109" s="28"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="26">
         <v>956</v>
       </c>
@@ -24522,7 +24525,7 @@
       <c r="L110" s="28"/>
       <c r="M110" s="28"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="26">
         <v>958</v>
       </c>
@@ -24548,7 +24551,7 @@
       <c r="L111" s="28"/>
       <c r="M111" s="28"/>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="26">
         <v>960</v>
       </c>
@@ -24574,7 +24577,7 @@
       <c r="L112" s="28"/>
       <c r="M112" s="28"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="26">
         <v>1000</v>
       </c>
@@ -24600,7 +24603,7 @@
       <c r="L113" s="28"/>
       <c r="M113" s="28"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="26">
         <v>1010</v>
       </c>
@@ -24626,7 +24629,7 @@
       <c r="L114" s="36"/>
       <c r="M114" s="28"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="26">
         <v>1057</v>
       </c>
@@ -24650,7 +24653,7 @@
       <c r="L115" s="28"/>
       <c r="M115" s="28"/>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="26">
         <v>1062</v>
       </c>
@@ -24674,7 +24677,7 @@
       <c r="L116" s="28"/>
       <c r="M116" s="28"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="26">
         <v>1065</v>
       </c>
@@ -24698,7 +24701,7 @@
       <c r="L117" s="28"/>
       <c r="M117" s="28"/>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="26">
         <v>1070</v>
       </c>
@@ -24724,7 +24727,7 @@
       <c r="L118" s="28"/>
       <c r="M118" s="28"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="26">
         <v>1088</v>
       </c>
@@ -24750,7 +24753,7 @@
       <c r="L119" s="28"/>
       <c r="M119" s="28"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="26">
         <v>1093</v>
       </c>
@@ -24776,7 +24779,7 @@
       <c r="L120" s="28"/>
       <c r="M120" s="28"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="26">
         <v>1102</v>
       </c>
@@ -24802,7 +24805,7 @@
       <c r="L121" s="28"/>
       <c r="M121" s="28"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="26">
         <v>1110</v>
       </c>
@@ -24830,7 +24833,7 @@
       <c r="L122" s="28"/>
       <c r="M122" s="28"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="26">
         <v>1115</v>
       </c>
@@ -24856,7 +24859,7 @@
       <c r="L123" s="28"/>
       <c r="M123" s="28"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="26">
         <v>1120</v>
       </c>
@@ -24882,7 +24885,7 @@
       <c r="L124" s="28"/>
       <c r="M124" s="28"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="26">
         <v>1131</v>
       </c>
@@ -24908,7 +24911,7 @@
       <c r="L125" s="28"/>
       <c r="M125" s="28"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="26">
         <v>1139</v>
       </c>
@@ -24934,7 +24937,7 @@
       <c r="L126" s="28"/>
       <c r="M126" s="28"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="26">
         <v>1146</v>
       </c>
@@ -24960,7 +24963,7 @@
       <c r="L127" s="28"/>
       <c r="M127" s="28"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="26">
         <v>1154</v>
       </c>
@@ -24986,7 +24989,7 @@
       <c r="L128" s="28"/>
       <c r="M128" s="28"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="26">
         <v>1168</v>
       </c>
@@ -25012,7 +25015,7 @@
       <c r="L129" s="28"/>
       <c r="M129" s="28"/>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="26">
         <v>1170</v>
       </c>
@@ -25038,7 +25041,7 @@
       <c r="L130" s="28"/>
       <c r="M130" s="28"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="26">
         <v>1175</v>
       </c>
@@ -25064,7 +25067,7 @@
       <c r="L131" s="28"/>
       <c r="M131" s="28"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="26">
         <v>1181</v>
       </c>
@@ -25090,7 +25093,7 @@
       <c r="L132" s="28"/>
       <c r="M132" s="28"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="26">
         <v>1193</v>
       </c>
@@ -25116,7 +25119,7 @@
       <c r="L133" s="28"/>
       <c r="M133" s="28"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="26">
         <v>1205</v>
       </c>
@@ -25142,7 +25145,7 @@
       <c r="L134" s="28"/>
       <c r="M134" s="28"/>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="26">
         <v>1211</v>
       </c>
@@ -25168,7 +25171,7 @@
       <c r="L135" s="28"/>
       <c r="M135" s="28"/>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="26">
         <v>1227</v>
       </c>
@@ -25194,7 +25197,7 @@
       <c r="L136" s="28"/>
       <c r="M136" s="28"/>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="26">
         <v>1231</v>
       </c>
@@ -25220,7 +25223,7 @@
       <c r="L137" s="28"/>
       <c r="M137" s="28"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="26">
         <v>1233</v>
       </c>
@@ -25246,7 +25249,7 @@
       <c r="L138" s="28"/>
       <c r="M138" s="28"/>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="26">
         <v>1240</v>
       </c>
@@ -25272,7 +25275,7 @@
       <c r="L139" s="28"/>
       <c r="M139" s="28"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="26">
         <v>1252</v>
       </c>
@@ -25298,7 +25301,7 @@
       <c r="L140" s="28"/>
       <c r="M140" s="28"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="26">
         <v>1259</v>
       </c>
@@ -25324,7 +25327,7 @@
       <c r="L141" s="28"/>
       <c r="M141" s="28"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="26">
         <v>1266</v>
       </c>
@@ -25350,7 +25353,7 @@
       <c r="L142" s="28"/>
       <c r="M142" s="28"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="26">
         <v>1276</v>
       </c>
@@ -25376,7 +25379,7 @@
       <c r="L143" s="28"/>
       <c r="M143" s="28"/>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="26">
         <v>1278</v>
       </c>
@@ -25402,7 +25405,7 @@
       <c r="L144" s="28"/>
       <c r="M144" s="28"/>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="26">
         <v>1285</v>
       </c>
@@ -25428,7 +25431,7 @@
       <c r="L145" s="28"/>
       <c r="M145" s="28"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="26">
         <v>1288</v>
       </c>
@@ -25454,7 +25457,7 @@
       <c r="L146" s="28"/>
       <c r="M146" s="28"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="26">
         <v>1307</v>
       </c>
@@ -25480,7 +25483,7 @@
       <c r="L147" s="28"/>
       <c r="M147" s="28"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="26">
         <v>1311</v>
       </c>
@@ -25506,7 +25509,7 @@
       <c r="L148" s="28"/>
       <c r="M148" s="28"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="26">
         <v>1315</v>
       </c>
@@ -25532,7 +25535,7 @@
       <c r="L149" s="28"/>
       <c r="M149" s="28"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="26">
         <v>1330</v>
       </c>
@@ -25554,7 +25557,7 @@
       <c r="L150" s="28"/>
       <c r="M150" s="28"/>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="26">
         <v>1337</v>
       </c>
@@ -25580,7 +25583,7 @@
       <c r="L151" s="28"/>
       <c r="M151" s="28"/>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="26">
         <v>1342</v>
       </c>
@@ -25606,7 +25609,7 @@
       <c r="L152" s="28"/>
       <c r="M152" s="28"/>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="26">
         <v>1344</v>
       </c>
@@ -25632,7 +25635,7 @@
       <c r="L153" s="28"/>
       <c r="M153" s="28"/>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="26">
         <v>1348</v>
       </c>
@@ -25658,7 +25661,7 @@
       <c r="L154" s="28"/>
       <c r="M154" s="28"/>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="26">
         <v>1353</v>
       </c>
@@ -25684,7 +25687,7 @@
       <c r="L155" s="28"/>
       <c r="M155" s="28"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="26">
         <v>1358</v>
       </c>
@@ -25710,7 +25713,7 @@
       <c r="L156" s="28"/>
       <c r="M156" s="28"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A157" s="26">
         <v>1362</v>
       </c>
@@ -25736,7 +25739,7 @@
       <c r="L157" s="28"/>
       <c r="M157" s="28"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A158" s="26">
         <v>1368</v>
       </c>
@@ -25762,7 +25765,7 @@
       <c r="L158" s="28"/>
       <c r="M158" s="28"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="26">
         <v>1391</v>
       </c>
@@ -25788,7 +25791,7 @@
       <c r="L159" s="28"/>
       <c r="M159" s="28"/>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>1425</v>
       </c>
@@ -25812,7 +25815,7 @@
       <c r="L160" s="28"/>
       <c r="M160" s="28"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="26">
         <v>1428</v>
       </c>
@@ -25836,7 +25839,7 @@
       <c r="L161" s="28"/>
       <c r="M161" s="28"/>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>1435</v>
       </c>
@@ -25862,7 +25865,7 @@
       <c r="L162" s="28"/>
       <c r="M162" s="28"/>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="26">
         <v>1440</v>
       </c>
@@ -25888,7 +25891,7 @@
       <c r="L163" s="28"/>
       <c r="M163" s="28"/>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="26">
         <v>1455</v>
       </c>
@@ -25914,7 +25917,7 @@
       <c r="L164" s="28"/>
       <c r="M164" s="28"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="26">
         <v>1474</v>
       </c>
@@ -25940,7 +25943,7 @@
       <c r="L165" s="28"/>
       <c r="M165" s="28"/>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="26">
         <v>1485</v>
       </c>
@@ -25966,7 +25969,7 @@
       <c r="L166" s="28"/>
       <c r="M166" s="28"/>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="26">
         <v>1518</v>
       </c>
@@ -25992,7 +25995,7 @@
       <c r="L167" s="28"/>
       <c r="M167" s="28"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="26">
         <v>1524</v>
       </c>
@@ -26016,7 +26019,7 @@
       <c r="L168" s="28"/>
       <c r="M168" s="28"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="26">
         <v>1536</v>
       </c>
@@ -26042,7 +26045,7 @@
       <c r="L169" s="28"/>
       <c r="M169" s="28"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="26">
         <v>1541</v>
       </c>
@@ -26068,7 +26071,7 @@
       <c r="L170" s="28"/>
       <c r="M170" s="28"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="26">
         <v>1544</v>
       </c>
@@ -26094,7 +26097,7 @@
       <c r="L171" s="28"/>
       <c r="M171" s="28"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="26">
         <v>1549</v>
       </c>
@@ -26120,7 +26123,7 @@
       <c r="L172" s="28"/>
       <c r="M172" s="28"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="26">
         <v>1558</v>
       </c>
@@ -26146,7 +26149,7 @@
       <c r="L173" s="28"/>
       <c r="M173" s="28"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A174" s="26">
         <v>1563</v>
       </c>
@@ -26172,7 +26175,7 @@
       <c r="L174" s="28"/>
       <c r="M174" s="28"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="26">
         <v>1567</v>
       </c>
@@ -26198,7 +26201,7 @@
       <c r="L175" s="28"/>
       <c r="M175" s="28"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A176" s="26">
         <v>1575</v>
       </c>
@@ -26224,7 +26227,7 @@
       <c r="L176" s="28"/>
       <c r="M176" s="28"/>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A177" s="26">
         <v>1580</v>
       </c>
@@ -26250,7 +26253,7 @@
       <c r="L177" s="28"/>
       <c r="M177" s="28"/>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A178" s="26">
         <v>1592</v>
       </c>
@@ -26276,7 +26279,7 @@
       <c r="L178" s="28"/>
       <c r="M178" s="28"/>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A179" s="26">
         <v>1605</v>
       </c>
@@ -26302,7 +26305,7 @@
       <c r="L179" s="28"/>
       <c r="M179" s="28"/>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="26">
         <v>1609</v>
       </c>
@@ -26328,7 +26331,7 @@
       <c r="L180" s="28"/>
       <c r="M180" s="28"/>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A181" s="26">
         <v>1612</v>
       </c>
@@ -26354,7 +26357,7 @@
       <c r="L181" s="28"/>
       <c r="M181" s="28"/>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="26">
         <v>1619</v>
       </c>
@@ -26380,7 +26383,7 @@
       <c r="L182" s="28"/>
       <c r="M182" s="28"/>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A183" s="26">
         <v>1660</v>
       </c>
@@ -26406,7 +26409,7 @@
       <c r="L183" s="36"/>
       <c r="M183" s="28"/>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A184" s="26">
         <v>1707</v>
       </c>
@@ -26432,7 +26435,7 @@
       <c r="L184" s="28"/>
       <c r="M184" s="28"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="26">
         <v>1712</v>
       </c>
@@ -26458,7 +26461,7 @@
       <c r="L185" s="28"/>
       <c r="M185" s="28"/>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="26">
         <v>1714</v>
       </c>
@@ -26484,7 +26487,7 @@
       <c r="L186" s="28"/>
       <c r="M186" s="28"/>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="26">
         <v>1720</v>
       </c>
@@ -26510,7 +26513,7 @@
       <c r="L187" s="28"/>
       <c r="M187" s="28"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="26">
         <v>1727</v>
       </c>
@@ -26536,7 +26539,7 @@
       <c r="L188" s="28"/>
       <c r="M188" s="28"/>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A189" s="26">
         <v>1747</v>
       </c>
@@ -26562,7 +26565,7 @@
       <c r="L189" s="28"/>
       <c r="M189" s="28"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A190" s="26">
         <v>1752</v>
       </c>
@@ -26588,7 +26591,7 @@
       <c r="L190" s="28"/>
       <c r="M190" s="28"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A191" s="26">
         <v>1757</v>
       </c>
@@ -26614,7 +26617,7 @@
       <c r="L191" s="28"/>
       <c r="M191" s="28"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A192" s="26">
         <v>1835</v>
       </c>
@@ -26640,7 +26643,7 @@
       <c r="L192" s="28"/>
       <c r="M192" s="28"/>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A193" s="26">
         <v>1839</v>
       </c>
@@ -26666,7 +26669,7 @@
       <c r="L193" s="28"/>
       <c r="M193" s="28"/>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A194" s="26">
         <v>1845</v>
       </c>
@@ -26692,7 +26695,7 @@
       <c r="L194" s="28"/>
       <c r="M194" s="28"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="26">
         <v>1848</v>
       </c>
@@ -26718,7 +26721,7 @@
       <c r="L195" s="28"/>
       <c r="M195" s="28"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="26">
         <v>1851</v>
       </c>
@@ -26744,7 +26747,7 @@
       </c>
       <c r="M196" s="28"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="26">
         <v>1868</v>
       </c>
@@ -26772,7 +26775,7 @@
       </c>
       <c r="M197" s="28"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="26">
         <v>1877</v>
       </c>
@@ -26798,7 +26801,7 @@
       </c>
       <c r="M198" s="28"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="26">
         <v>1882</v>
       </c>
@@ -26824,7 +26827,7 @@
       <c r="L199" s="28"/>
       <c r="M199" s="28"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="26">
         <v>1885</v>
       </c>
@@ -26850,7 +26853,7 @@
       <c r="L200" s="28"/>
       <c r="M200" s="28"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="26">
         <v>1887</v>
       </c>
@@ -26876,7 +26879,7 @@
       <c r="L201" s="28"/>
       <c r="M201" s="28"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A202" s="26">
         <v>1890</v>
       </c>
@@ -26902,7 +26905,7 @@
       <c r="L202" s="28"/>
       <c r="M202" s="28"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A203" s="26">
         <v>1903</v>
       </c>
@@ -26930,7 +26933,7 @@
       </c>
       <c r="M203" s="28"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A204" s="26">
         <v>1905</v>
       </c>
@@ -26958,7 +26961,7 @@
       </c>
       <c r="M204" s="28"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A205" s="26">
         <v>1908</v>
       </c>
@@ -26984,7 +26987,7 @@
       <c r="L205" s="28"/>
       <c r="M205" s="28"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A206" s="26">
         <v>1910</v>
       </c>
@@ -27010,7 +27013,7 @@
       <c r="L206" s="28"/>
       <c r="M206" s="28"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A207" s="26">
         <v>1916</v>
       </c>
@@ -27036,7 +27039,7 @@
       <c r="L207" s="28"/>
       <c r="M207" s="28"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A208" s="26">
         <v>1925</v>
       </c>
@@ -27062,7 +27065,7 @@
       <c r="L208" s="28"/>
       <c r="M208" s="28"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A209" s="26">
         <v>1929</v>
       </c>
@@ -27088,7 +27091,7 @@
       <c r="L209" s="28"/>
       <c r="M209" s="28"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A210" s="26">
         <v>1933</v>
       </c>
@@ -27114,7 +27117,7 @@
       <c r="L210" s="28"/>
       <c r="M210" s="28"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A211" s="26">
         <v>1946</v>
       </c>
@@ -27144,7 +27147,7 @@
       <c r="L211" s="28"/>
       <c r="M211" s="28"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A212" s="26">
         <v>1951</v>
       </c>
@@ -27168,7 +27171,7 @@
       <c r="L212" s="28"/>
       <c r="M212" s="28"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A213" s="26">
         <v>1960</v>
       </c>
@@ -27194,7 +27197,7 @@
       <c r="L213" s="28"/>
       <c r="M213" s="28"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A214" s="26">
         <v>1969</v>
       </c>
@@ -27220,7 +27223,7 @@
       <c r="L214" s="28"/>
       <c r="M214" s="28"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="26">
         <v>1972</v>
       </c>
@@ -27246,7 +27249,7 @@
       <c r="L215" s="28"/>
       <c r="M215" s="28"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A216" s="26">
         <v>1974</v>
       </c>
@@ -27272,7 +27275,7 @@
       <c r="L216" s="28"/>
       <c r="M216" s="28"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A217" s="26">
         <v>1978</v>
       </c>
@@ -27298,7 +27301,7 @@
       <c r="L217" s="28"/>
       <c r="M217" s="28"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A218" s="26">
         <v>1983</v>
       </c>
@@ -27324,7 +27327,7 @@
       <c r="L218" s="28"/>
       <c r="M218" s="28"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A219" s="26">
         <v>1986</v>
       </c>
@@ -27350,7 +27353,7 @@
       <c r="L219" s="28"/>
       <c r="M219" s="28"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A220" s="26">
         <v>1988</v>
       </c>
@@ -27374,7 +27377,7 @@
       <c r="L220" s="28"/>
       <c r="M220" s="28"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A221" s="26">
         <v>1998</v>
       </c>
@@ -27400,7 +27403,7 @@
       <c r="L221" s="28"/>
       <c r="M221" s="28"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A222" s="26">
         <v>2005</v>
       </c>
@@ -27426,7 +27429,7 @@
       <c r="L222" s="28"/>
       <c r="M222" s="28"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A223" s="26">
         <v>2008</v>
       </c>
@@ -27450,7 +27453,7 @@
       <c r="L223" s="28"/>
       <c r="M223" s="28"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A224" s="26">
         <v>2010</v>
       </c>
@@ -27476,7 +27479,7 @@
       <c r="L224" s="28"/>
       <c r="M224" s="28"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A225" s="26">
         <v>2015</v>
       </c>
@@ -27502,7 +27505,7 @@
       <c r="L225" s="28"/>
       <c r="M225" s="28"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A226" s="26">
         <v>2019</v>
       </c>
@@ -27528,7 +27531,7 @@
       <c r="L226" s="28"/>
       <c r="M226" s="28"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A227" s="26">
         <v>2023</v>
       </c>
@@ -27554,7 +27557,7 @@
       <c r="L227" s="28"/>
       <c r="M227" s="28"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A228" s="26">
         <v>2027</v>
       </c>
@@ -27580,7 +27583,7 @@
       <c r="L228" s="28"/>
       <c r="M228" s="28"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A229" s="26">
         <v>2032</v>
       </c>
@@ -27606,7 +27609,7 @@
       <c r="L229" s="28"/>
       <c r="M229" s="28"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A230" s="26">
         <v>2035</v>
       </c>
@@ -27632,7 +27635,7 @@
       <c r="L230" s="28"/>
       <c r="M230" s="28"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="26">
         <v>2036</v>
       </c>
@@ -27658,7 +27661,7 @@
       <c r="L231" s="28"/>
       <c r="M231" s="28"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A232" s="26">
         <v>2045</v>
       </c>
@@ -27684,7 +27687,7 @@
       <c r="L232" s="28"/>
       <c r="M232" s="28"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A233" s="26">
         <v>2054</v>
       </c>
@@ -27710,7 +27713,7 @@
       <c r="L233" s="28"/>
       <c r="M233" s="28"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A234" s="26">
         <v>2082</v>
       </c>
@@ -27736,7 +27739,7 @@
       <c r="L234" s="28"/>
       <c r="M234" s="28"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A235" s="26">
         <v>2103</v>
       </c>
@@ -27762,7 +27765,7 @@
       <c r="L235" s="28"/>
       <c r="M235" s="28"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A236" s="26">
         <v>2111</v>
       </c>
@@ -27788,7 +27791,7 @@
       <c r="L236" s="28"/>
       <c r="M236" s="28"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A237" s="26">
         <v>2114</v>
       </c>
@@ -27814,7 +27817,7 @@
       <c r="L237" s="28"/>
       <c r="M237" s="28"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A238" s="26">
         <v>2122</v>
       </c>
@@ -27840,7 +27843,7 @@
       <c r="L238" s="28"/>
       <c r="M238" s="28"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A239" s="26">
         <v>2124</v>
       </c>
@@ -27866,7 +27869,7 @@
       <c r="L239" s="28"/>
       <c r="M239" s="28"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A240" s="26">
         <v>2127</v>
       </c>
@@ -27892,7 +27895,7 @@
       <c r="L240" s="28"/>
       <c r="M240" s="28"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A241" s="26">
         <v>2145</v>
       </c>
@@ -27918,7 +27921,7 @@
       <c r="L241" s="28"/>
       <c r="M241" s="28"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A242" s="26">
         <v>2149</v>
       </c>
@@ -27944,7 +27947,7 @@
       <c r="L242" s="28"/>
       <c r="M242" s="28"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="26">
         <v>2153</v>
       </c>
@@ -27970,7 +27973,7 @@
       <c r="L243" s="28"/>
       <c r="M243" s="28"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A244" s="26">
         <v>2163</v>
       </c>
@@ -27996,7 +27999,7 @@
       <c r="L244" s="28"/>
       <c r="M244" s="28"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A245" s="26">
         <v>2170</v>
       </c>
@@ -28022,7 +28025,7 @@
       <c r="L245" s="28"/>
       <c r="M245" s="28"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A246" s="26">
         <v>2246</v>
       </c>
@@ -28048,7 +28051,7 @@
       <c r="L246" s="28"/>
       <c r="M246" s="28"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A247" s="26">
         <v>2258</v>
       </c>
@@ -28074,7 +28077,7 @@
       <c r="L247" s="28"/>
       <c r="M247" s="28"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A248" s="26">
         <v>2292</v>
       </c>
@@ -28100,7 +28103,7 @@
       <c r="L248" s="28"/>
       <c r="M248" s="28"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A249" s="26">
         <v>2301</v>
       </c>
@@ -28126,7 +28129,7 @@
       <c r="L249" s="28"/>
       <c r="M249" s="28"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A250" s="26">
         <v>2340</v>
       </c>
@@ -28152,7 +28155,7 @@
       <c r="L250" s="28"/>
       <c r="M250" s="28"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A251" s="26">
         <v>2346</v>
       </c>
@@ -28178,7 +28181,7 @@
       <c r="L251" s="28"/>
       <c r="M251" s="28"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A252" s="26">
         <v>2348</v>
       </c>
@@ -28204,7 +28207,7 @@
       <c r="L252" s="28"/>
       <c r="M252" s="28"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A253" s="26">
         <v>2350</v>
       </c>
@@ -28230,7 +28233,7 @@
       <c r="L253" s="28"/>
       <c r="M253" s="28"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A254" s="26">
         <v>2352</v>
       </c>
@@ -28258,7 +28261,7 @@
       </c>
       <c r="M254" s="28"/>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A255" s="26">
         <v>2367</v>
       </c>
@@ -28286,7 +28289,7 @@
       </c>
       <c r="M255" s="28"/>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A256" s="26">
         <v>2370</v>
       </c>
@@ -28312,7 +28315,7 @@
       <c r="L256" s="28"/>
       <c r="M256" s="28"/>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A257" s="26">
         <v>2377</v>
       </c>
@@ -28338,7 +28341,7 @@
       <c r="L257" s="28"/>
       <c r="M257" s="28"/>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A258" s="26">
         <v>2384</v>
       </c>
@@ -28364,7 +28367,7 @@
       <c r="L258" s="28"/>
       <c r="M258" s="28"/>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A259" s="26">
         <v>2389</v>
       </c>
@@ -28392,7 +28395,7 @@
       </c>
       <c r="M259" s="28"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A260" s="26">
         <v>2409</v>
       </c>
@@ -28420,7 +28423,7 @@
       </c>
       <c r="M260" s="28"/>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A261" s="26">
         <v>2425</v>
       </c>
@@ -28446,7 +28449,7 @@
       <c r="L261" s="28"/>
       <c r="M261" s="28"/>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A262" s="26">
         <v>2430</v>
       </c>
@@ -28472,7 +28475,7 @@
       <c r="L262" s="28"/>
       <c r="M262" s="28"/>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A263" s="26">
         <v>2436</v>
       </c>
@@ -28500,7 +28503,7 @@
       </c>
       <c r="M263" s="28"/>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A264" s="26">
         <v>2456</v>
       </c>
@@ -28528,7 +28531,7 @@
       </c>
       <c r="M264" s="28"/>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A265" s="26">
         <v>2457</v>
       </c>
@@ -28554,7 +28557,7 @@
       <c r="L265" s="28"/>
       <c r="M265" s="28"/>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A266" s="26">
         <v>2460</v>
       </c>
@@ -28580,7 +28583,7 @@
       <c r="L266" s="28"/>
       <c r="M266" s="28"/>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A267" s="26">
         <v>2467</v>
       </c>
@@ -28606,7 +28609,7 @@
       <c r="L267" s="28"/>
       <c r="M267" s="28"/>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A268" s="26">
         <v>2490</v>
       </c>
@@ -28632,7 +28635,7 @@
       <c r="L268" s="28"/>
       <c r="M268" s="28"/>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A269" s="26">
         <v>2500</v>
       </c>
@@ -28658,7 +28661,7 @@
       <c r="L269" s="28"/>
       <c r="M269" s="28"/>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A270" s="26">
         <v>2504</v>
       </c>
@@ -28684,7 +28687,7 @@
       <c r="L270" s="28"/>
       <c r="M270" s="28"/>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A271" s="26">
         <v>2510</v>
       </c>
@@ -28710,7 +28713,7 @@
       <c r="L271" s="28"/>
       <c r="M271" s="28"/>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A272" s="26">
         <v>2513</v>
       </c>
@@ -28736,7 +28739,7 @@
       <c r="L272" s="28"/>
       <c r="M272" s="28"/>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A273" s="26">
         <v>2520</v>
       </c>
@@ -28760,7 +28763,7 @@
       <c r="L273" s="28"/>
       <c r="M273" s="28"/>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A274" s="26">
         <v>2524</v>
       </c>
@@ -28786,7 +28789,7 @@
       <c r="L274" s="28"/>
       <c r="M274" s="28"/>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A275" s="26">
         <v>2529</v>
       </c>
@@ -28812,7 +28815,7 @@
       <c r="L275" s="28"/>
       <c r="M275" s="28"/>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A276" s="26">
         <v>2547</v>
       </c>
@@ -28838,7 +28841,7 @@
       <c r="L276" s="28"/>
       <c r="M276" s="28"/>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A277" s="26">
         <v>2552</v>
       </c>
@@ -28864,7 +28867,7 @@
       <c r="L277" s="28"/>
       <c r="M277" s="28"/>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A278" s="26">
         <v>2558</v>
       </c>
@@ -28890,7 +28893,7 @@
       <c r="L278" s="28"/>
       <c r="M278" s="28"/>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A279" s="26">
         <v>2561</v>
       </c>
@@ -28916,7 +28919,7 @@
       <c r="L279" s="28"/>
       <c r="M279" s="28"/>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A280" s="26">
         <v>2569</v>
       </c>
@@ -28942,7 +28945,7 @@
       <c r="L280" s="28"/>
       <c r="M280" s="28"/>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A281" s="26">
         <v>2570</v>
       </c>
@@ -28968,7 +28971,7 @@
       <c r="L281" s="28"/>
       <c r="M281" s="28"/>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A282" s="26">
         <v>2597</v>
       </c>
@@ -28994,7 +28997,7 @@
       <c r="L282" s="28"/>
       <c r="M282" s="28"/>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A283" s="26">
         <v>2601</v>
       </c>
@@ -29020,7 +29023,7 @@
       <c r="L283" s="28"/>
       <c r="M283" s="28"/>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A284" s="26">
         <v>2612</v>
       </c>
@@ -29046,7 +29049,7 @@
       <c r="L284" s="28"/>
       <c r="M284" s="28"/>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A285" s="26">
         <v>2621</v>
       </c>
@@ -29072,7 +29075,7 @@
       <c r="L285" s="28"/>
       <c r="M285" s="28"/>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A286" s="26">
         <v>2639</v>
       </c>
@@ -29098,7 +29101,7 @@
       <c r="L286" s="28"/>
       <c r="M286" s="28"/>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A287" s="26">
         <v>2641</v>
       </c>
@@ -29124,7 +29127,7 @@
       <c r="L287" s="28"/>
       <c r="M287" s="28"/>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A288" s="26">
         <v>2647</v>
       </c>
@@ -29150,7 +29153,7 @@
       <c r="L288" s="28"/>
       <c r="M288" s="28"/>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A289" s="26">
         <v>2656</v>
       </c>
@@ -29176,7 +29179,7 @@
       <c r="L289" s="28"/>
       <c r="M289" s="28"/>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A290" s="26">
         <v>2662</v>
       </c>
@@ -29202,7 +29205,7 @@
       <c r="L290" s="28"/>
       <c r="M290" s="28"/>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A291" s="26">
         <v>2665</v>
       </c>
@@ -29228,7 +29231,7 @@
       <c r="L291" s="28"/>
       <c r="M291" s="28"/>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A292" s="26">
         <v>2694</v>
       </c>
@@ -29254,7 +29257,7 @@
       <c r="L292" s="28"/>
       <c r="M292" s="28"/>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A293" s="26">
         <v>2696</v>
       </c>
@@ -29280,7 +29283,7 @@
       <c r="L293" s="28"/>
       <c r="M293" s="28"/>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A294" s="26">
         <v>2738</v>
       </c>
@@ -29296,7 +29299,7 @@
       <c r="L294" s="28"/>
       <c r="M294" s="28"/>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A295" s="28" t="s">
         <v>138</v>
       </c>
@@ -29314,6 +29317,7 @@
       <c r="M295" s="28"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:U295" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
   <mergeCells count="8">
     <mergeCell ref="H122:I122"/>
     <mergeCell ref="K183:L183"/>
